--- a/poster/Graph.xlsx
+++ b/poster/Graph.xlsx
@@ -116,10 +116,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Varying Bus width with 6 inputs per side, 4 BLEs per LB</c:v>
+            <c:v>4 BLEs per logic block, varying tracks per channel</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="square"/>
             <c:size val="14"/>
           </c:marker>
           <c:xVal>
@@ -129,25 +129,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -188,7 +188,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Varying inputs per side with bus width of 5, 4 BLEs per LB</c:v>
+            <c:v>4 BLEs per logic block, varying inputs per logic block</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="square"/>
@@ -201,19 +201,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,11 +248,34 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Varying bus width with 6 inputs per side, 8 BLEs per LB</c:v>
+            <c:v>8 BLEs per logic block, varying tracks per channel</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -261,55 +284,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$15</c:f>
+              <c:f>Sheet1!$F$9:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,11 +343,28 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Varying inputs per side with bus width of 5, 8 BLEs per LB</c:v>
+            <c:v>8 BLEs poer logic block, varying inputs per logic block</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -333,43 +373,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>158</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,21 +424,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81629184"/>
-        <c:axId val="78461184"/>
+        <c:axId val="88639360"/>
+        <c:axId val="88640896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81629184"/>
+        <c:axId val="88639360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="11"/>
-          <c:min val="1"/>
+          <c:max val="41"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="25400"/>
@@ -415,13 +455,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78461184"/>
+        <c:crossAx val="88640896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78461184"/>
+        <c:axId val="88640896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81629184"/>
+        <c:crossAx val="88639360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -819,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +873,7 @@
     <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -843,81 +884,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <f>216/4</f>
         <v>54</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>E2/2</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <f>232/4</f>
         <v>58</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">E3/2</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <f>272/4</f>
         <v>68</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <f>360/4</f>
         <v>90</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -925,102 +986,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>66</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>E9/2</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="1">E10/2</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>87</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>90</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>92</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>94</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>102</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>180</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/poster/Graph.xlsx
+++ b/poster/Graph.xlsx
@@ -343,7 +343,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>8 BLEs poer logic block, varying inputs per logic block</c:v>
+            <c:v>8 BLEs per logic block, varying inputs per logic block</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -424,11 +424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88639360"/>
-        <c:axId val="88640896"/>
+        <c:axId val="81102336"/>
+        <c:axId val="81104256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88639360"/>
+        <c:axId val="81102336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41"/>
@@ -455,14 +455,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88640896"/>
+        <c:crossAx val="81104256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88640896"/>
+        <c:axId val="81104256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88639360"/>
+        <c:crossAx val="81102336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -862,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/poster/Graph.xlsx
+++ b/poster/Graph.xlsx
@@ -465,6 +465,8 @@
         <c:axId val="81104256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -862,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
